--- a/BoardModel.xlsx
+++ b/BoardModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5627df4a662c342d/เดสก์ท็อป/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B399DE-49E9-4C8B-98B2-6C96DAAB4DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D3B399DE-49E9-4C8B-98B2-6C96DAAB4DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7779D98E-4789-49F4-AC6B-1BEF2321FE79}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{939A1BAC-96E1-4AD5-A6BC-C24D6AEDAE50}"/>
+    <workbookView minimized="1" xWindow="14616" yWindow="2220" windowWidth="8424" windowHeight="8880" xr2:uid="{939A1BAC-96E1-4AD5-A6BC-C24D6AEDAE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>EL</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>SP = 4</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ijlostz</t>
   </si>
 </sst>
 </file>
@@ -137,13 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,27 +467,27 @@
   <dimension ref="B2:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
@@ -494,22 +499,22 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="2">
         <v>2</v>
       </c>
       <c r="S3" s="4"/>
-      <c r="V3" s="4">
-        <v>2</v>
+      <c r="V3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>4</v>
@@ -562,6 +567,9 @@
     <row r="7" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>

--- a/BoardModel.xlsx
+++ b/BoardModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5627df4a662c342d/เดสก์ท็อป/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D3B399DE-49E9-4C8B-98B2-6C96DAAB4DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7779D98E-4789-49F4-AC6B-1BEF2321FE79}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{D3B399DE-49E9-4C8B-98B2-6C96DAAB4DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80904AED-D340-4CA3-A3AB-B9CE8B01E778}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14616" yWindow="2220" windowWidth="8424" windowHeight="8880" xr2:uid="{939A1BAC-96E1-4AD5-A6BC-C24D6AEDAE50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{939A1BAC-96E1-4AD5-A6BC-C24D6AEDAE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>EL</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>ijlostz</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
 </sst>
 </file>
@@ -143,13 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,6 +178,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +484,7 @@
   <dimension ref="B2:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -481,9 +498,15 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -502,9 +525,15 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6">
+        <v>16</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -677,5 +706,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F3 G2:H2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>